--- a/data/Eksklusionslister/PFA_eksklusionsliste.xlsx
+++ b/data/Eksklusionslister/PFA_eksklusionsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\Documents\Python_projekter\kommune_investering\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\Documents\Python_projekter\kommune_investering\data\Eksklusionslister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE712F-5C6C-4814-BCA1-E6DC236E368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771707A-9205-4CAA-A3A3-DAEE87DB05BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="2748" windowWidth="21624" windowHeight="12408" xr2:uid="{7BDA8AA7-13E4-4CE5-AEC6-FDFF0BB660FF}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="21600" windowHeight="11160" xr2:uid="{7BDA8AA7-13E4-4CE5-AEC6-FDFF0BB660FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="169">
   <si>
     <t>Selskab</t>
   </si>
@@ -516,15 +516,6 @@
   </si>
   <si>
     <t>Involveret i produktionen af antipersonelle miner </t>
-  </si>
-  <si>
-    <t>S&amp;T Holdings Co. Ltd.  </t>
-  </si>
-  <si>
-    <t>Sydkorea  </t>
-  </si>
-  <si>
-    <t>Forsvar  </t>
   </si>
   <si>
     <t>Safran Group</t>
@@ -558,7 +549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,20 +914,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950B4090-C79D-4EEE-B7F2-F6636995EB7B}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,12 +941,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -969,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -997,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1039,12 +1030,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1058,12 +1049,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1077,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1133,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1161,7 +1152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1175,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1189,7 +1180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1203,7 +1194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1231,7 +1222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1245,7 +1236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1259,7 +1250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1273,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1287,7 +1278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1301,7 +1292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1315,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1329,7 +1320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1343,7 +1334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1385,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1399,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1413,7 +1404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1427,7 +1418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1441,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1455,7 +1446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1469,7 +1460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1483,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -1511,7 +1502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -1525,7 +1516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -1539,7 +1530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -1553,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -1567,7 +1558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -1581,7 +1572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1595,7 +1586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -1609,7 +1600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -1623,7 +1614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -1637,12 +1628,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -1656,7 +1647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -1670,7 +1661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -1684,7 +1675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -1698,7 +1689,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -1726,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -1740,7 +1731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -1754,7 +1745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -1768,7 +1759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -1782,7 +1773,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -1796,7 +1787,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -1810,7 +1801,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -1824,7 +1815,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -1838,7 +1829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -1852,7 +1843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -1866,7 +1857,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -1880,7 +1871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -1894,7 +1885,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -1908,7 +1899,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -1922,7 +1913,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -1936,7 +1927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -1950,7 +1941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -1964,7 +1955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -1978,7 +1969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -1992,7 +1983,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -2006,7 +1997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -2020,7 +2011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2034,7 +2025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -2048,7 +2039,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -2062,7 +2053,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -2076,7 +2067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -2090,7 +2081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -2104,7 +2095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -2118,7 +2109,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -2132,7 +2123,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -2146,7 +2137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -2160,7 +2151,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -2174,68 +2165,68 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
       <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>161</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>162</v>
       </c>
-      <c r="D92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>163</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>120</v>
       </c>
-      <c r="C93" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>164</v>
       </c>
-      <c r="B94" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>166</v>
-      </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
         <v>102</v>
@@ -2244,45 +2235,31 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
         <v>167</v>
       </c>
-      <c r="B97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>171</v>
-      </c>
-      <c r="B99" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" t="s">
         <v>109</v>
       </c>
     </row>
